--- a/data/trans_camb/IP19C08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C08-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-6,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>-6,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>-6,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-19,07</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>-10,53</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>-24,26</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-13,7</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,34</t>
+          <t>-9,52</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-16,28</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 2,95</t>
+          <t>-36,06; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,62; -0,36</t>
+          <t>-30,91; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 1,59</t>
+          <t>-29,03; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 1,81</t>
+          <t>-42,16; 1,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 1,63</t>
+          <t>-33,67; 16,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 0,68</t>
+          <t>-49,75; -9,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 0,64</t>
+          <t>-28,01; -2,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,63; -0,58</t>
+          <t>-22,99; 5,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,48; -0,02</t>
+          <t>-30,73; -5,96</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-32,47%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-68,81%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-47,71%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-44,23%</t>
+          <t>-78,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-47,28%</t>
+          <t>-43,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-56,18%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-38,83%</t>
+          <t>-84,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-57,16%</t>
+          <t>-58,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-52,29%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-79,52; 110,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 10,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-88,01; 84,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-81,73; 68,8</t>
+          <t>-100,0; inf</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-83,4; 54,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-89,59; 54,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-71,24; 16,65</t>
+          <t>-100,0; 46,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-81,76; -3,46</t>
+          <t>-100,0; 166,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-80,73; 9,13</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-3,05</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 8,61</t>
+          <t>-5,9; 2,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 1,97</t>
+          <t>-7,62; -0,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 6,31</t>
+          <t>-6,94; 1,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 7,78</t>
+          <t>-7,32; 1,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 1,34</t>
+          <t>-7,71; 1,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 1,23</t>
+          <t>-8,46; 0,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 6,24</t>
+          <t>-5,34; 0,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 1,17</t>
+          <t>-6,63; -0,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 2,98</t>
+          <t>-6,48; -0,02</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>146,56%</t>
+          <t>-32,47%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-36,57%</t>
+          <t>-68,81%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>91,9%</t>
+          <t>-47,71%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>97,23%</t>
+          <t>-44,23%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-60,25%</t>
+          <t>-47,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-61,79%</t>
+          <t>-56,18%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>119,12%</t>
+          <t>-38,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-49,7%</t>
+          <t>-57,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>-52,29%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,62; —</t>
+          <t>-79,52; 110,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 10,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-75,58; —</t>
+          <t>-88,01; 84,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-61,82; —</t>
+          <t>-81,73; 68,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,4; 54,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,59; 54,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 519,06</t>
+          <t>-71,24; 16,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-91,17; 237,8</t>
+          <t>-81,76; -3,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-68,9; 299,06</t>
+          <t>-80,73; 9,13</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,06</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,06</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,06</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-19,07</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-10,53</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-24,26</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-13,7</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-9,52</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-16,28</t>
+          <t>-2,41</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-36,06; 0,0</t>
+          <t>-8,03; 0,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-30,91; 0,0</t>
+          <t>-7,72; 2,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-29,03; 0,0</t>
+          <t>-5,35; 11,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-42,16; 1,01</t>
+          <t>-7,38; 4,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-33,67; 16,05</t>
+          <t>-7,78; 3,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-49,75; -9,75</t>
+          <t>-10,75; -1,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-28,01; -2,9</t>
+          <t>-6,65; 1,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-22,99; 5,9</t>
+          <t>-6,05; 1,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-30,73; -5,96</t>
+          <t>-6,06; 4,47</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-68,66%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-45,55%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-78,61%</t>
+          <t>-23,34%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-43,4%</t>
+          <t>-32,12%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-82,78%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-84,15%</t>
+          <t>-44,32%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-58,47%</t>
+          <t>-37,89%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-43,18%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 272,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 145,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,3; 843,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; inf</t>
+          <t>-79,85; 163,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,08; 156,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 15,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 46,57</t>
+          <t>-81,73; 47,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 166,95</t>
+          <t>-78,28; 67,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,47; 179,28</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-5,12</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>0,21</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 0,69</t>
+          <t>-1,04; 8,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 2,42</t>
+          <t>-3,55; 1,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 11,89</t>
+          <t>-2,0; 6,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 4,33</t>
+          <t>-1,74; 7,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 3,51</t>
+          <t>-5,14; 1,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,75; -1,05</t>
+          <t>-5,11; 1,23</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 1,12</t>
+          <t>-0,03; 6,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 1,74</t>
+          <t>-3,42; 1,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 4,47</t>
+          <t>-2,35; 2,98</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-68,66%</t>
+          <t>146,56%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-45,55%</t>
+          <t>-36,57%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>91,9%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-23,34%</t>
+          <t>97,23%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-32,12%</t>
+          <t>-60,25%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-82,78%</t>
+          <t>-61,79%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-44,32%</t>
+          <t>119,12%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-37,89%</t>
+          <t>-49,7%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-43,18%</t>
+          <t>8,93%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 272,13</t>
+          <t>-56,62; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 145,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-89,3; 843,31</t>
+          <t>-75,58; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-79,85; 163,88</t>
+          <t>-61,82; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-82,08; 156,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 15,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-81,73; 47,11</t>
+          <t>-17,67; 519,06</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-78,28; 67,33</t>
+          <t>-91,17; 237,8</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-86,47; 179,28</t>
+          <t>-68,9; 299,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C08-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-36,06; 0,0</t>
+          <t>-34,69; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-30,91; 0,0</t>
+          <t>-33,13; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-29,03; 0,0</t>
+          <t>-41,12; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-42,16; 1,01</t>
+          <t>-42,74; 0,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-33,67; 16,05</t>
+          <t>-37,52; 14,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-49,75; -9,75</t>
+          <t>-46,27; -9,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,01; -2,9</t>
+          <t>-27,59; -2,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,99; 5,9</t>
+          <t>-23,96; 5,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-30,73; -5,96</t>
+          <t>-30,04; -5,73</t>
         </is>
       </c>
     </row>
@@ -806,27 +806,27 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; inf</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 188,69</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 46,57</t>
+          <t>-100,0; 100,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 166,95</t>
+          <t>-100,0; 134,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 5,37</t>
+          <t>-8,7; 5,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 7,56</t>
+          <t>-8,0; 7,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,04; -1,25</t>
+          <t>-11,87; -0,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 5,64</t>
+          <t>-5,69; 5,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 10,49</t>
+          <t>-2,63; 10,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 7,6</t>
+          <t>-3,68; 8,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 3,38</t>
+          <t>-5,8; 3,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 6,61</t>
+          <t>-3,17; 6,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 1,92</t>
+          <t>-6,21; 1,59</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-79,93; 192,64</t>
+          <t>-82,07; 194,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-78,41; 203,74</t>
+          <t>-77,05; 230,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 22,68</t>
+          <t>-100,0; 78,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-69,68; 989,76</t>
+          <t>-62,98; 1059,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-74,0; 651,03</t>
+          <t>-67,68; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-72,63; 135,69</t>
+          <t>-73,37; 125,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,36; 222,71</t>
+          <t>-45,04; 237,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-79,88; 94,62</t>
+          <t>-79,83; 65,83</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 2,95</t>
+          <t>-6,6; 2,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,62; -0,36</t>
+          <t>-8,66; -0,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 1,59</t>
+          <t>-7,07; 1,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 1,81</t>
+          <t>-7,25; 1,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 1,63</t>
+          <t>-7,64; 1,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 0,68</t>
+          <t>-8,17; 0,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 0,64</t>
+          <t>-5,38; 0,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,63; -0,58</t>
+          <t>-6,36; -0,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,48; -0,02</t>
+          <t>-5,97; 0,16</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-79,52; 110,86</t>
+          <t>-80,85; 93,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 10,48</t>
+          <t>-100,0; 14,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-88,01; 84,17</t>
+          <t>-88,3; 106,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-81,73; 68,8</t>
+          <t>-82,41; 63,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-83,4; 54,16</t>
+          <t>-85,06; 63,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-89,59; 54,66</t>
+          <t>-90,42; 32,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-71,24; 16,65</t>
+          <t>-72,47; 21,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-81,76; -3,46</t>
+          <t>-83,91; -7,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-80,73; 9,13</t>
+          <t>-79,84; 12,2</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 0,69</t>
+          <t>-8,54; 0,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 2,42</t>
+          <t>-6,96; 2,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 11,89</t>
+          <t>-5,46; 12,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 4,33</t>
+          <t>-7,83; 4,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 3,51</t>
+          <t>-7,67; 3,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,75; -1,05</t>
+          <t>-11,27; -1,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 1,12</t>
+          <t>-6,79; 1,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 1,74</t>
+          <t>-5,92; 1,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 4,47</t>
+          <t>-6,47; 4,04</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 272,13</t>
+          <t>-100,0; 155,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 145,44</t>
+          <t>-100,0; 174,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-89,3; 843,31</t>
+          <t>-88,97; 703,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-79,85; 163,88</t>
+          <t>-82,25; 157,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-82,08; 156,85</t>
+          <t>-82,38; 136,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 15,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-81,73; 47,11</t>
+          <t>-84,58; 53,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-78,28; 67,33</t>
+          <t>-76,53; 55,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-86,47; 179,28</t>
+          <t>-88,64; 149,35</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 8,61</t>
+          <t>-0,92; 7,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 1,97</t>
+          <t>-4,2; 1,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 6,31</t>
+          <t>-1,54; 6,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 7,78</t>
+          <t>-1,99; 7,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 1,34</t>
+          <t>-5,05; 1,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 1,23</t>
+          <t>-4,98; 1,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 6,24</t>
+          <t>-0,34; 6,12</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 1,17</t>
+          <t>-3,57; 1,28</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 2,98</t>
+          <t>-2,55; 3,05</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-56,62; —</t>
+          <t>-59,36; 1246,36</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1665,12 +1665,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-75,58; —</t>
+          <t>-64,72; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-61,82; —</t>
+          <t>-72,4; inf</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 519,06</t>
+          <t>-22,24; 597,52</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-91,17; 237,8</t>
+          <t>-100,0; 182,22</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-68,9; 299,06</t>
+          <t>-71,63; 304,26</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 1,32</t>
+          <t>-3,58; 1,2</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 0,21</t>
+          <t>-4,54; -0,09</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 1,69</t>
+          <t>-3,82; 1,98</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 1,29</t>
+          <t>-4,4; 1,3</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 0,75</t>
+          <t>-4,66; 0,79</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,23; -1,37</t>
+          <t>-6,08; -1,03</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 0,52</t>
+          <t>-3,13; 0,44</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,69; -0,23</t>
+          <t>-3,87; -0,47</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,96; -0,35</t>
+          <t>-4,31; -0,48</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-58,29; 41,08</t>
+          <t>-57,59; 37,82</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-72,3; 10,55</t>
+          <t>-73,89; 1,67</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-65,06; 49,46</t>
+          <t>-64,54; 57,08</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-58,01; 31,32</t>
+          <t>-60,57; 33,15</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-63,25; 19,33</t>
+          <t>-63,58; 23,39</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-81,91; -28,19</t>
+          <t>-81,45; -19,48</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-48,09; 13,32</t>
+          <t>-49,56; 12,06</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-59,72; -4,41</t>
+          <t>-60,07; -8,15</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-64,78; -6,08</t>
+          <t>-68,51; -8,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C08-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-34,69; 0,0</t>
+          <t>-25,91; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,13; 0,0</t>
+          <t>-24,69; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-41,12; 0,0</t>
+          <t>-29,3; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-42,74; 0,76</t>
+          <t>-42,78; 0,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-37,52; 14,87</t>
+          <t>-36,09; 13,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-46,27; -9,65</t>
+          <t>-48,06; -9,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,59; -2,7</t>
+          <t>-29,68; -2,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-23,96; 5,49</t>
+          <t>-25,47; 4,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-30,04; -5,73</t>
+          <t>-31,91; -7,41</t>
         </is>
       </c>
     </row>
@@ -806,27 +806,27 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 210,94</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 201,9</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 188,69</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 100,76</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 134,1</t>
+          <t>-100,0; 164,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 5,0</t>
+          <t>-8,87; 4,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 7,29</t>
+          <t>-7,05; 8,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,87; -0,82</t>
+          <t>-13,07; -0,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 5,57</t>
+          <t>-6,01; 4,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 10,67</t>
+          <t>-3,42; 10,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 8,11</t>
+          <t>-3,95; 7,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 3,81</t>
+          <t>-5,62; 3,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 6,96</t>
+          <t>-3,49; 6,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 1,59</t>
+          <t>-6,44; 1,7</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-82,07; 194,57</t>
+          <t>-81,49; 157,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-77,05; 230,58</t>
+          <t>-69,42; 256,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 78,33</t>
+          <t>-100,0; 31,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,98; 1059,79</t>
+          <t>-69,05; 1073,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-67,68; —</t>
+          <t>-72,02; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-73,37; 125,89</t>
+          <t>-70,77; 133,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,04; 237,85</t>
+          <t>-47,71; 225,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-79,83; 65,83</t>
+          <t>-78,03; 68,82</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 2,42</t>
+          <t>-6,6; 2,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,66; -0,39</t>
+          <t>-8,42; -0,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 1,59</t>
+          <t>-6,52; 1,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 1,95</t>
+          <t>-7,23; 1,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 1,52</t>
+          <t>-8,06; 1,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 0,75</t>
+          <t>-8,23; 0,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 0,75</t>
+          <t>-5,2; 0,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,36; -0,7</t>
+          <t>-6,54; -0,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 0,16</t>
+          <t>-6,04; 0,09</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-80,85; 93,28</t>
+          <t>-82,58; 91,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 14,04</t>
+          <t>-100,0; 20,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-88,3; 106,02</t>
+          <t>-86,11; 97,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-82,41; 63,89</t>
+          <t>-82,38; 49,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-85,06; 63,27</t>
+          <t>-83,09; 62,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-90,42; 32,74</t>
+          <t>-89,28; 44,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-72,47; 21,42</t>
+          <t>-70,45; 22,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-83,91; -7,34</t>
+          <t>-81,88; -3,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-79,84; 12,2</t>
+          <t>-78,74; 12,34</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 0,6</t>
+          <t>-9,07; 0,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 2,65</t>
+          <t>-8,14; 2,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 12,22</t>
+          <t>-5,6; 11,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 4,22</t>
+          <t>-7,01; 4,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 3,28</t>
+          <t>-8,03; 3,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,27; -1,11</t>
+          <t>-11,0; -1,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 1,3</t>
+          <t>-6,45; 1,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 1,63</t>
+          <t>-5,96; 1,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 4,04</t>
+          <t>-5,97; 4,09</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 155,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 174,22</t>
+          <t>-100,0; 162,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-88,97; 703,35</t>
+          <t>-91,43; 585,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-82,25; 157,89</t>
+          <t>-82,55; 237,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-82,38; 136,02</t>
+          <t>-82,87; 155,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -16,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-84,58; 53,13</t>
+          <t>-81,77; 43,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-76,53; 55,93</t>
+          <t>-76,55; 59,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-88,64; 149,35</t>
+          <t>-86,11; 247,84</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 7,82</t>
+          <t>-0,73; 7,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 1,94</t>
+          <t>-3,63; 1,93</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 6,32</t>
+          <t>-1,65; 6,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 7,47</t>
+          <t>-1,88; 7,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 1,33</t>
+          <t>-5,23; 1,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 1,87</t>
+          <t>-5,04; 1,35</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 6,12</t>
+          <t>-0,41; 6,27</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 1,28</t>
+          <t>-3,57; 0,86</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 3,05</t>
+          <t>-2,44; 2,8</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-59,36; 1246,36</t>
+          <t>-61,71; 984,88</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1665,12 +1665,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-64,72; —</t>
+          <t>-87,86; 797,66</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-72,4; inf</t>
+          <t>-65,26; 999,22</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 597,52</t>
+          <t>-31,48; 629,83</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 182,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-71,63; 304,26</t>
+          <t>-70,1; 258,67</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 1,2</t>
+          <t>-3,45; 1,41</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,54; -0,09</t>
+          <t>-4,23; 0,6</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,98</t>
+          <t>-3,9; 1,97</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 1,3</t>
+          <t>-4,38; 1,09</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 0,79</t>
+          <t>-4,45; 0,96</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,08; -1,03</t>
+          <t>-6,01; -1,03</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,44</t>
+          <t>-2,94; 0,45</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,87; -0,47</t>
+          <t>-3,81; -0,54</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,31; -0,48</t>
+          <t>-4,28; -0,48</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-57,59; 37,82</t>
+          <t>-55,95; 42,49</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-73,89; 1,67</t>
+          <t>-70,1; 20,54</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-64,54; 57,08</t>
+          <t>-65,42; 66,14</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-60,57; 33,15</t>
+          <t>-57,33; 30,97</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-63,58; 23,39</t>
+          <t>-61,06; 25,52</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-81,45; -19,48</t>
+          <t>-81,21; -17,79</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-49,56; 12,06</t>
+          <t>-48,47; 11,58</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-60,07; -8,15</t>
+          <t>-62,62; -10,96</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-68,51; -8,79</t>
+          <t>-67,65; -6,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C08-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,20 +531,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que en su última visita al dentista fue por selladores, aplicación de fluor</t>
+          <t>Menores que en su última visita al dentista fue por selladores, aplicación de flúor</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,06</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,06</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,06</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-19,07</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-10,53</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-24,26</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-13,7</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-9,52</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-16,28</t>
+          <t>-4,7</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,91; 0,0</t>
+          <t>-11,83; 1,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,69; 0,0</t>
+          <t>-7,67; 8,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-29,3; 0,0</t>
+          <t>-10,92; 2,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-42,78; 0,12</t>
+          <t>-8,91; 3,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-36,09; 13,85</t>
+          <t>-7,13; 5,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-48,06; -9,68</t>
+          <t>-11,4; -1,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-29,68; -2,72</t>
+          <t>-8,0; 0,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,47; 4,85</t>
+          <t>-5,57; 4,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-31,91; -7,41</t>
+          <t>-9,22; -0,75</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-55,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-39,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-78,61%</t>
+          <t>-34,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-43,4%</t>
+          <t>-15,98%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-83,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-84,15%</t>
+          <t>-45,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-58,47%</t>
+          <t>-6,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-61,69%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,06; 53,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,29; 223,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,55; 76,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 210,94</t>
+          <t>-86,24; 124,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 201,9</t>
+          <t>-75,52; 171,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -15,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,66; 26,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 164,79</t>
+          <t>-57,29; 94,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,36; -8,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,73</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-3,14</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 4,77</t>
+          <t>-7,32; 1,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 8,04</t>
+          <t>-7,71; 1,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,07; -0,97</t>
+          <t>-8,55; 0,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 4,7</t>
+          <t>-5,9; 2,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 10,14</t>
+          <t>-7,62; -0,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 7,96</t>
+          <t>-6,96; 1,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 3,43</t>
+          <t>-5,34; 0,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 6,49</t>
+          <t>-6,63; -0,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 1,7</t>
+          <t>-6,55; -0,17</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-23,11%</t>
+          <t>-44,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>-47,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-80,5%</t>
+          <t>-58,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,01%</t>
+          <t>-32,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>96,51%</t>
+          <t>-68,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>54,54%</t>
+          <t>-48,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-18,76%</t>
+          <t>-38,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,91%</t>
+          <t>-57,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-39,74%</t>
+          <t>-53,82%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-81,49; 157,26</t>
+          <t>-81,73; 68,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-69,42; 256,66</t>
+          <t>-83,4; 54,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 31,94</t>
+          <t>-90,17; 48,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,52; 110,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-69,05; 1073,47</t>
+          <t>-100,0; 10,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-72,02; —</t>
+          <t>-88,67; 76,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-70,77; 133,22</t>
+          <t>-71,24; 16,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,71; 225,51</t>
+          <t>-81,76; -3,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-78,03; 68,82</t>
+          <t>-81,05; 7,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>-5,05</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,34</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-2,3</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 2,46</t>
+          <t>-7,38; 4,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,42; -0,6</t>
+          <t>-7,78; 3,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 1,56</t>
+          <t>-10,6; -0,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 1,72</t>
+          <t>-8,03; 0,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 1,52</t>
+          <t>-7,72; 2,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 0,82</t>
+          <t>-5,23; 11,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 0,76</t>
+          <t>-6,65; 1,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,54; -0,67</t>
+          <t>-6,05; 1,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 0,09</t>
+          <t>-5,97; 4,51</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-32,47%</t>
+          <t>-23,34%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-68,81%</t>
+          <t>-32,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-47,71%</t>
+          <t>-81,54%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-44,23%</t>
+          <t>-68,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-47,28%</t>
+          <t>-45,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-56,18%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-38,83%</t>
+          <t>-44,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-57,16%</t>
+          <t>-37,89%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-52,29%</t>
+          <t>-41,13%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-82,58; 91,85</t>
+          <t>-79,85; 163,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 20,91</t>
+          <t>-82,08; 156,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-86,11; 97,23</t>
+          <t>-100,0; 24,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-82,38; 49,83</t>
+          <t>-100,0; 272,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-83,09; 62,11</t>
+          <t>-100,0; 145,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-89,28; 44,58</t>
+          <t>-89,15; 706,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-70,45; 22,95</t>
+          <t>-81,73; 47,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-81,88; -3,76</t>
+          <t>-78,28; 67,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-78,74; 12,34</t>
+          <t>-85,55; 159,07</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,12</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>0,25</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 0,54</t>
+          <t>-1,74; 7,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 2,31</t>
+          <t>-5,14; 1,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 11,35</t>
+          <t>-5,49; 0,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 4,96</t>
+          <t>-1,04; 8,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 3,54</t>
+          <t>-3,55; 1,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,0; -1,09</t>
+          <t>-2,0; 6,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 1,1</t>
+          <t>-0,03; 6,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 1,6</t>
+          <t>-3,42; 1,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 4,09</t>
+          <t>-2,36; 3,01</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-68,66%</t>
+          <t>97,23%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-45,55%</t>
+          <t>-60,25%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>-65,23%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-23,34%</t>
+          <t>146,56%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-32,12%</t>
+          <t>-36,57%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-82,78%</t>
+          <t>94,72%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-44,32%</t>
+          <t>119,12%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-37,89%</t>
+          <t>-49,7%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-43,18%</t>
+          <t>10,61%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-61,82; —</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 162,08</t>
-        </is>
-      </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-91,43; 585,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-82,55; 237,62</t>
+          <t>-56,62; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-82,87; 155,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -16,44</t>
+          <t>-73,95; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-81,77; 43,77</t>
+          <t>-17,67; 519,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-76,55; 59,22</t>
+          <t>-91,17; 237,8</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-86,11; 247,84</t>
+          <t>-68,38; 297,78</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-2,41</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 7,55</t>
+          <t>-4,22; 1,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 1,93</t>
+          <t>-4,65; 0,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 6,09</t>
+          <t>-6,23; -1,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 7,55</t>
+          <t>-3,66; 1,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 1,37</t>
+          <t>-4,45; 0,21</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 1,35</t>
+          <t>-4,01; 1,58</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 6,27</t>
+          <t>-2,95; 0,52</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 0,86</t>
+          <t>-3,69; -0,23</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 2,8</t>
+          <t>-3,94; -0,34</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>146,56%</t>
+          <t>-26,21%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-36,57%</t>
+          <t>-33,18%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>91,9%</t>
+          <t>-61,23%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>97,23%</t>
+          <t>-22,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-60,25%</t>
+          <t>-45,24%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-61,79%</t>
+          <t>-30,05%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>119,12%</t>
+          <t>-24,26%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-49,7%</t>
+          <t>-38,7%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>-45,7%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-61,71; 984,88</t>
+          <t>-58,01; 31,32</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,25; 19,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-87,86; 797,66</t>
+          <t>-81,87; -28,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-65,26; 999,22</t>
+          <t>-58,29; 41,08</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,3; 10,55</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,41; 49,33</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-31,48; 629,83</t>
+          <t>-48,09; 13,32</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,72; -4,41</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-70,1; 258,67</t>
+          <t>-65,0; -5,12</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-1,06</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-2,19</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-1,44</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-1,5</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-1,89</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-3,49</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-1,28</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-2,04</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-2,41</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-3,45; 1,41</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-4,23; 0,6</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-3,9; 1,97</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-4,38; 1,09</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-4,45; 0,96</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-6,01; -1,03</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-2,94; 0,45</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-3,81; -0,54</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-4,28; -0,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-22,0%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-45,24%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-29,79%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-26,21%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-33,18%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-61,15%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-24,26%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-38,7%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-45,87%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-55,95; 42,49</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-70,1; 20,54</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-65,42; 66,14</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-57,33; 30,97</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-61,06; 25,52</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-81,21; -17,79</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-48,47; 11,58</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-62,62; -10,96</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-67,65; -6,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
